--- a/s2cDNASample/s2CDNASample_hbrown_02.20.20.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_02.20.20.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/6a metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A295E9DB-31D7-B74F-8C72-14BF09938544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D7F87-1A2D-1D4C-B5DB-3C930D46BB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12420" yWindow="8760" windowWidth="21180" windowHeight="10640" xr2:uid="{02C179BB-9114-4149-9DD2-28797CBB2CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,10 +59,10 @@
     <t>02.20.20</t>
   </si>
   <si>
-    <t>BROWN</t>
+    <t>E7420L</t>
   </si>
   <si>
-    <t>E7420L</t>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3048E6D1-76AE-5249-8901-BBFFDE2233EB}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,8 +495,8 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -504,14 +504,14 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="b">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -552,13 +552,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -578,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -604,13 +604,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -630,13 +630,13 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -656,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -682,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -708,13 +708,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -734,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -760,13 +760,13 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -786,13 +786,13 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -812,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -838,13 +838,13 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -864,13 +864,13 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -890,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -916,13 +916,13 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -942,13 +942,13 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -968,13 +968,13 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -994,13 +994,13 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1020,13 +1020,13 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1046,13 +1046,13 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1072,13 +1072,13 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1098,13 +1098,13 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1124,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1150,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1176,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1228,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>

--- a/s2cDNASample/s2CDNASample_hbrown_02.20.20.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_02.20.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D7F87-1A2D-1D4C-B5DB-3C930D46BB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87EC991-7A0D-0747-9363-14EC5E4CE54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12420" yWindow="8760" windowWidth="21180" windowHeight="10640" xr2:uid="{02C179BB-9114-4149-9DD2-28797CBB2CD7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="12">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -64,12 +64,15 @@
   <si>
     <t>H.BROWN</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +97,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,13 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3048E6D1-76AE-5249-8901-BBFFDE2233EB}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,8 +524,8 @@
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -560,8 +571,8 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -586,8 +597,8 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -612,8 +623,8 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -638,8 +649,8 @@
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -664,8 +675,8 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -690,8 +701,8 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -716,8 +727,8 @@
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -742,8 +753,8 @@
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -768,8 +779,8 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -794,8 +805,8 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -820,8 +831,8 @@
       <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -846,8 +857,8 @@
       <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -872,8 +883,8 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -898,8 +909,8 @@
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -924,8 +935,8 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -950,8 +961,8 @@
       <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,8 +987,8 @@
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,8 +1013,8 @@
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,8 +1039,8 @@
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1054,8 +1065,8 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1080,8 +1091,8 @@
       <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,8 +1117,8 @@
       <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,8 +1143,8 @@
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1158,8 +1169,8 @@
       <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1184,8 +1195,8 @@
       <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1210,8 +1221,8 @@
       <c r="G28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
+      <c r="H28" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1236,9 +1247,18 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
